--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Contactor_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Contactor_19DX101.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988A7DD4-3450-42F2-A2C1-DBA782875E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-30828" yWindow="-132" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CJ20" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="21">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,19 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -495,7 +496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -521,18 +522,18 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>0.66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>6.3</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -547,7 +548,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -558,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -567,13 +568,13 @@
         <v>44.5</v>
       </c>
       <c r="G5" s="2">
-        <v>107</v>
+        <v>116.5</v>
       </c>
       <c r="H5" s="2">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -581,25 +582,25 @@
         <v>0.66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>44.5</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H6" s="2">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -610,22 +611,22 @@
         <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>44.5</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2">
-        <v>116.5</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -633,25 +634,25 @@
         <v>0.66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>44.5</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2">
-        <v>116.5</v>
+        <v>125</v>
       </c>
       <c r="H8" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -662,48 +663,48 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2">
+        <v>146</v>
+      </c>
+      <c r="H9" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
         <v>122</v>
       </c>
-      <c r="H9" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2">
-        <v>53</v>
-      </c>
       <c r="G10" s="2">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="H10" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -714,22 +715,22 @@
         <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="G11" s="2">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="H11" s="2">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -737,25 +738,25 @@
         <v>0.66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="H12" s="2">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -766,230 +767,230 @@
         <v>18</v>
       </c>
       <c r="D13" s="2">
+        <v>400</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2">
+        <v>245</v>
+      </c>
+      <c r="G13" s="2">
+        <v>262</v>
+      </c>
+      <c r="H13" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>630</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2">
+        <v>245</v>
+      </c>
+      <c r="G14" s="2">
+        <v>272</v>
+      </c>
+      <c r="H14" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2">
+        <v>46</v>
+      </c>
+      <c r="G15" s="2">
+        <v>84</v>
+      </c>
+      <c r="H15" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2">
+        <v>46</v>
+      </c>
+      <c r="G17" s="2">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2">
+        <v>58</v>
+      </c>
+      <c r="G18" s="2">
+        <v>98</v>
+      </c>
+      <c r="H18" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2">
+        <v>58</v>
+      </c>
+      <c r="G19" s="2">
+        <v>103</v>
+      </c>
+      <c r="H19" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2">
+        <v>58</v>
+      </c>
+      <c r="G20" s="2">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
         <v>40</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2">
-        <v>87</v>
-      </c>
-      <c r="G13" s="2">
-        <v>125</v>
-      </c>
-      <c r="H13" s="2">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2">
-        <v>87</v>
-      </c>
-      <c r="G14" s="2">
-        <v>125</v>
-      </c>
-      <c r="H14" s="2">
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2">
-        <v>116</v>
-      </c>
-      <c r="G15" s="2">
-        <v>146</v>
-      </c>
-      <c r="H15" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2">
-        <v>116</v>
-      </c>
-      <c r="G16" s="2">
-        <v>146</v>
-      </c>
-      <c r="H16" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2">
-        <v>122</v>
-      </c>
-      <c r="G17" s="2">
-        <v>154</v>
-      </c>
-      <c r="H17" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2">
-        <v>122</v>
-      </c>
-      <c r="G18" s="2">
-        <v>154</v>
-      </c>
-      <c r="H18" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2">
-        <v>160</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2">
-        <v>146</v>
-      </c>
-      <c r="G19" s="2">
-        <v>178</v>
-      </c>
-      <c r="H19" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2">
-        <v>160</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2">
-        <v>146</v>
-      </c>
-      <c r="G20" s="2">
-        <v>178</v>
-      </c>
-      <c r="H20" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2">
-        <v>250</v>
-      </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="2">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="G21" s="2">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="H21" s="2">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1000,22 +1001,22 @@
         <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="2">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="G22" s="2">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="H22" s="2">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1023,100 +1024,337 @@
         <v>0.66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" s="2">
+        <v>128</v>
+      </c>
+      <c r="H23" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2">
+        <v>115</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>150</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2">
+        <v>185</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2">
+        <v>225</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>265</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2">
+        <v>330</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2">
         <v>400</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="2">
-        <v>245</v>
-      </c>
-      <c r="G23" s="2">
-        <v>262</v>
-      </c>
-      <c r="H23" s="2">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2">
-        <v>400</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="2">
-        <v>245</v>
-      </c>
-      <c r="G24" s="2">
-        <v>262</v>
-      </c>
-      <c r="H24" s="2">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2">
+        <v>500</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2">
         <v>630</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="2">
-        <v>245</v>
-      </c>
-      <c r="G25" s="2">
-        <v>272</v>
-      </c>
-      <c r="H25" s="2">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2">
-        <v>630</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="2">
-        <v>245</v>
-      </c>
-      <c r="G26" s="2">
-        <v>272</v>
-      </c>
-      <c r="H26" s="2">
-        <v>294</v>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2">
+        <v>800</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1450</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2100</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2650</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Contactor_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Contactor_19DX101.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988A7DD4-3450-42F2-A2C1-DBA782875E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3CE29-151C-4CF8-9705-50717918E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-132" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-228" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CJ20" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -880,7 +880,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H17" s="2">
         <v>76</v>
@@ -897,19 +897,19 @@
         <v>20</v>
       </c>
       <c r="D18" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H18" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -932,7 +932,7 @@
         <v>58</v>
       </c>
       <c r="G19" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2">
         <v>86</v>
@@ -949,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -958,7 +958,7 @@
         <v>58</v>
       </c>
       <c r="G20" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2">
         <v>86</v>
@@ -975,19 +975,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="2">
+        <v>58</v>
+      </c>
+      <c r="G21" s="2">
+        <v>103</v>
+      </c>
+      <c r="H21" s="2">
         <v>86</v>
-      </c>
-      <c r="G21" s="2">
-        <v>118</v>
-      </c>
-      <c r="H21" s="2">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,19 +1001,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="2">
+        <v>58</v>
+      </c>
+      <c r="G22" s="2">
+        <v>103</v>
+      </c>
+      <c r="H22" s="2">
         <v>86</v>
-      </c>
-      <c r="G22" s="2">
-        <v>118</v>
-      </c>
-      <c r="H22" s="2">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -1036,7 +1036,7 @@
         <v>86</v>
       </c>
       <c r="G23" s="2">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H23" s="2">
         <v>128</v>
@@ -1053,14 +1053,20 @@
         <v>20</v>
       </c>
       <c r="D24" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="F24" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" s="2">
+        <v>118</v>
+      </c>
+      <c r="H24" s="2">
+        <v>128</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1073,14 +1079,20 @@
         <v>20</v>
       </c>
       <c r="D25" s="2">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="F25" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" s="2">
+        <v>128</v>
+      </c>
+      <c r="H25" s="2">
+        <v>128</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1093,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -1104,7 +1116,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2">
         <v>0.66</v>
@@ -1113,11 +1125,14 @@
         <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1130,11 +1145,14 @@
         <v>20</v>
       </c>
       <c r="D28" s="2">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1147,15 +1165,18 @@
         <v>20</v>
       </c>
       <c r="D29" s="2">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="2">
         <v>0.66</v>
@@ -1164,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="2">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -1181,7 +1202,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -1198,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="2">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -1215,7 +1236,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="2">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -1232,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="2">
-        <v>630</v>
+        <v>330</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -1249,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -1266,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -1283,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="2">
-        <v>1250</v>
+        <v>630</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -1300,7 +1321,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="2">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -1317,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="2">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -1334,7 +1355,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="2">
-        <v>2100</v>
+        <v>1250</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -1351,15 +1372,66 @@
         <v>20</v>
       </c>
       <c r="D41" s="2">
+        <v>1450</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2">
         <v>2650</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Contactor_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_Contactor_19DX101.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3CE29-151C-4CF8-9705-50717918E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-228" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="-225" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="CJ20" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="21">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,19 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -496,7 +495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -522,7 +521,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -548,7 +547,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -574,7 +573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -600,7 +599,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -626,7 +625,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -652,7 +651,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -678,7 +677,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -704,7 +703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -730,7 +729,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -756,7 +755,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -782,7 +781,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -808,7 +807,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -834,7 +833,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -860,7 +859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -886,7 +885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -912,7 +911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -938,7 +937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -964,7 +963,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -990,7 +989,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1114,7 +1113,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1134,7 +1133,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1153,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -1174,7 +1173,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -1236,196 +1235,213 @@
         <v>20</v>
       </c>
       <c r="D33" s="2">
+        <v>260</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2">
         <v>265</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2">
         <v>330</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2">
         <v>400</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2">
         <v>500</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2">
         <v>630</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2">
         <v>800</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2">
         <v>1000</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2">
         <v>1250</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2">
         <v>1450</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2">
         <v>1700</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2">
         <v>2100</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2">
         <v>2650</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
     </row>
